--- a/samples/hough/image_grayscale_edge_sqr_threshold_hough_accumulator.xlsx
+++ b/samples/hough/image_grayscale_edge_sqr_threshold_hough_accumulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\samples\hough\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BC5F5F21-9251-4068-AA9E-8668702B08C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EB7369-683E-4247-BC46-001A9FFFFFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{7499E449-C290-40A2-9CF4-D43F9448735F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7499E449-C290-40A2-9CF4-D43F9448735F}"/>
   </bookViews>
   <sheets>
     <sheet name="image_grayscale_edge_sqr_thresh" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -488,6 +488,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -533,8 +548,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -580,56 +596,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -647,14 +614,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -990,12 +964,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D3838-CDCE-4D5B-B52F-00818E8EB279}">
   <dimension ref="A1:JU71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1155" ySplit="315" topLeftCell="CA1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1572" ySplit="504" topLeftCell="GA30" activePane="bottomRight"/>
       <selection activeCell="GS23" sqref="GS23"/>
-      <selection pane="topRight" activeCell="W11" sqref="W11"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
-      <selection pane="bottomRight" activeCell="JU71" sqref="B12:JU71"/>
+      <selection pane="topRight" activeCell="CH11" sqref="CH11"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="CH69" sqref="CH69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>-140.5</v>
       </c>
@@ -1931,7 +1905,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="12" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2499,7 +2473,7 @@
       <c r="GG12">
         <v>37</v>
       </c>
-      <c r="GH12">
+      <c r="GH12" s="1">
         <v>60</v>
       </c>
       <c r="GI12">
@@ -2571,7 +2545,7 @@
       <c r="HE12">
         <v>27</v>
       </c>
-      <c r="HF12">
+      <c r="HF12" s="1">
         <v>90</v>
       </c>
       <c r="HG12">
@@ -23901,7 +23875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>78</v>
       </c>
@@ -24746,7 +24720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>81</v>
       </c>
@@ -24963,7 +24937,7 @@
       <c r="BT39">
         <v>55</v>
       </c>
-      <c r="BU39">
+      <c r="BU39" s="1">
         <v>60</v>
       </c>
       <c r="BV39">
@@ -25591,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>84</v>
       </c>
@@ -26436,7 +26410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>87</v>
       </c>
@@ -26770,7 +26744,7 @@
       <c r="DG41">
         <v>28</v>
       </c>
-      <c r="DH41">
+      <c r="DH41" s="1">
         <v>67</v>
       </c>
       <c r="DI41">
@@ -26782,7 +26756,7 @@
       <c r="DK41">
         <v>10</v>
       </c>
-      <c r="DL41">
+      <c r="DL41" s="1">
         <v>75</v>
       </c>
       <c r="DM41">
@@ -27281,7 +27255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>90</v>
       </c>
@@ -28126,7 +28100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>93</v>
       </c>
@@ -28640,7 +28614,7 @@
       <c r="FO43">
         <v>55</v>
       </c>
-      <c r="FP43">
+      <c r="FP43" s="1">
         <v>79</v>
       </c>
       <c r="FQ43">
@@ -28971,8 +28945,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>96</v>
       </c>
       <c r="B44">
@@ -29668,7 +29642,7 @@
       <c r="HX44">
         <v>16</v>
       </c>
-      <c r="HY44">
+      <c r="HY44" s="1">
         <v>64</v>
       </c>
       <c r="HZ44">
@@ -49251,7 +49225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>168</v>
       </c>
@@ -50096,7 +50070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>171</v>
       </c>
@@ -50352,7 +50326,7 @@
       <c r="CG69">
         <v>40</v>
       </c>
-      <c r="CH69">
+      <c r="CH69" s="1">
         <v>53</v>
       </c>
       <c r="CI69">
@@ -50941,7 +50915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>174</v>
       </c>
@@ -51539,7 +51513,7 @@
       <c r="GQ70">
         <v>28</v>
       </c>
-      <c r="GR70">
+      <c r="GR70" s="1">
         <v>74</v>
       </c>
       <c r="GS70">
@@ -51786,7 +51760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:281" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>177</v>
       </c>
@@ -52015,7 +51989,7 @@
       <c r="BX71">
         <v>39</v>
       </c>
-      <c r="BY71">
+      <c r="BY71" s="1">
         <v>68</v>
       </c>
       <c r="BZ71">
@@ -52054,7 +52028,7 @@
       <c r="CK71">
         <v>38</v>
       </c>
-      <c r="CL71">
+      <c r="CL71" s="1">
         <v>84</v>
       </c>
       <c r="CM71">
@@ -52633,24 +52607,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12:JU71">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
-      <formula>80</formula>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+      <formula>40</formula>
+      <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+      <formula>50</formula>
+      <formula>59</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>69</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>70</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
-      <formula>60</formula>
-      <formula>69</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
-      <formula>50</formula>
-      <formula>59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
-      <formula>40</formula>
-      <formula>49</formula>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
